--- a/resource/轻涟.xlsx
+++ b/resource/轻涟.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54967\Desktop\GenshinPlay\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitat\Desktop\GenshinPlay\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D632202E-CE35-4BA8-A913-949CC3562550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CE2C69-F4E5-4D70-823C-D2AE5F136A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="300" windowWidth="19200" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="311">
   <si>
     <t>音符(简谱)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1283,6 +1283,11 @@
   </si>
   <si>
     <t>5,3,2,-5,-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改编自B站up主 @指尖灬旋律丿
+原谱：https://www.bilibili.com/read/cv27651860/?spm_id_from=333.999.collection.opus.click</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,7 +1298,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1306,6 +1311,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1329,7 +1341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,6 +1354,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1623,22 +1638,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D386"/>
+  <dimension ref="A1:E386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
-      <selection activeCell="D346" sqref="D346:D386"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="34.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.58203125" style="1"/>
+    <col min="5" max="5" width="87.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>293</v>
       </c>
@@ -1651,8 +1667,11 @@
       <c r="D1" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1663,7 +1682,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>165</v>
       </c>
@@ -1674,7 +1693,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1688,7 +1707,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
@@ -1696,7 +1715,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
@@ -1704,7 +1723,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>57</v>
       </c>
@@ -1712,7 +1731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>58</v>
       </c>
@@ -1720,7 +1739,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
@@ -1728,7 +1747,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>60</v>
       </c>
@@ -1736,7 +1755,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
@@ -1744,7 +1763,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1755,7 +1774,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
@@ -1763,7 +1782,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>55</v>
       </c>
@@ -1771,7 +1790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>63</v>
       </c>
@@ -1779,7 +1798,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -1790,7 +1809,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>65</v>
       </c>
@@ -1798,7 +1817,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>66</v>
       </c>
@@ -1806,7 +1825,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>67</v>
       </c>
@@ -1814,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>68</v>
       </c>
@@ -1822,7 +1841,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>69</v>
       </c>
@@ -1830,7 +1849,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>70</v>
       </c>
@@ -1838,7 +1857,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -1849,7 +1868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>72</v>
       </c>
@@ -1857,7 +1876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -1868,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>73</v>
       </c>
@@ -1876,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>73</v>
       </c>
@@ -1884,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>73</v>
       </c>
@@ -1892,7 +1911,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>74</v>
       </c>
@@ -1900,7 +1919,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>6</v>
       </c>
@@ -1911,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>75</v>
       </c>
@@ -1919,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
@@ -1927,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>75</v>
       </c>
@@ -1935,7 +1954,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>74</v>
       </c>
@@ -1943,7 +1962,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>7</v>
       </c>
@@ -1954,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>73</v>
       </c>
@@ -1962,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>73</v>
       </c>
@@ -1970,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>73</v>
       </c>
@@ -1978,7 +1997,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>74</v>
       </c>
@@ -1986,7 +2005,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>8</v>
       </c>
@@ -1997,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
@@ -2005,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>75</v>
       </c>
@@ -2013,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
@@ -2021,7 +2040,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>74</v>
       </c>
@@ -2029,7 +2048,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>9</v>
       </c>
@@ -2040,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>77</v>
       </c>
@@ -2048,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>77</v>
       </c>
@@ -2056,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>77</v>
       </c>
@@ -2064,7 +2083,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>78</v>
       </c>
@@ -2072,7 +2091,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>10</v>
       </c>
@@ -2083,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>80</v>
       </c>
@@ -2091,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>81</v>
       </c>
@@ -2099,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>82</v>
       </c>
@@ -2107,7 +2126,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>74</v>
       </c>
@@ -2118,7 +2137,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>11</v>
       </c>
@@ -2129,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
         <v>3</v>
       </c>
@@ -2137,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
         <v>4</v>
       </c>
@@ -2148,7 +2167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
@@ -2159,7 +2178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>6</v>
       </c>
@@ -2170,7 +2189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
@@ -2181,7 +2200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>12</v>
       </c>
@@ -2195,7 +2214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
@@ -2203,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
         <v>4</v>
       </c>
@@ -2214,7 +2233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>13</v>
       </c>
@@ -2225,7 +2244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>13</v>
       </c>
@@ -2236,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>18</v>
       </c>
@@ -2244,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>19</v>
       </c>
@@ -2255,7 +2274,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>20</v>
       </c>
@@ -2266,7 +2285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
         <v>21</v>
       </c>
@@ -2277,7 +2296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>22</v>
       </c>
@@ -2288,7 +2307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>14</v>
       </c>
@@ -2302,7 +2321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>26</v>
       </c>
@@ -2310,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>19</v>
       </c>
@@ -2321,7 +2340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>27</v>
       </c>
@@ -2332,7 +2351,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>15</v>
       </c>
@@ -2343,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B76" s="2" t="s">
         <v>32</v>
       </c>
@@ -2351,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>33</v>
       </c>
@@ -2362,7 +2381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
         <v>34</v>
       </c>
@@ -2373,7 +2392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B79" s="2" t="s">
         <v>35</v>
       </c>
@@ -2384,7 +2403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B80" s="2" t="s">
         <v>5</v>
       </c>
@@ -2395,7 +2414,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>16</v>
       </c>
@@ -2406,7 +2425,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
         <v>7</v>
       </c>
@@ -2417,7 +2436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B83" s="2" t="s">
         <v>39</v>
       </c>
@@ -2428,7 +2447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
         <v>40</v>
       </c>
@@ -2436,7 +2455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B85" s="2" t="s">
         <v>32</v>
       </c>
@@ -2447,7 +2466,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>22</v>
       </c>
@@ -2458,7 +2477,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>17</v>
       </c>
@@ -2469,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
         <v>46</v>
       </c>
@@ -2477,7 +2496,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
         <v>7</v>
       </c>
@@ -2485,7 +2504,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
         <v>22</v>
       </c>
@@ -2496,7 +2515,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
         <v>47</v>
       </c>
@@ -2504,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
         <v>46</v>
       </c>
@@ -2512,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>18</v>
       </c>
@@ -2523,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
         <v>84</v>
       </c>
@@ -2534,7 +2553,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>85</v>
       </c>
@@ -2545,7 +2564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
         <v>72</v>
       </c>
@@ -2556,7 +2575,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
         <v>86</v>
       </c>
@@ -2567,7 +2586,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
         <v>87</v>
       </c>
@@ -2578,7 +2597,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>19</v>
       </c>
@@ -2589,7 +2608,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
         <v>74</v>
       </c>
@@ -2597,7 +2616,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
         <v>93</v>
       </c>
@@ -2605,7 +2624,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
         <v>68</v>
       </c>
@@ -2613,7 +2632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
         <v>69</v>
       </c>
@@ -2621,7 +2640,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
         <v>94</v>
       </c>
@@ -2632,7 +2651,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
         <v>95</v>
       </c>
@@ -2643,7 +2662,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>20</v>
       </c>
@@ -2654,7 +2673,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
         <v>78</v>
       </c>
@@ -2662,7 +2681,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
         <v>18</v>
       </c>
@@ -2673,7 +2692,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
         <v>99</v>
       </c>
@@ -2684,7 +2703,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
         <v>100</v>
       </c>
@@ -2695,7 +2714,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>21</v>
       </c>
@@ -2706,7 +2725,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
         <v>104</v>
       </c>
@@ -2717,7 +2736,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
         <v>105</v>
       </c>
@@ -2728,7 +2747,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
         <v>21</v>
       </c>
@@ -2739,7 +2758,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
         <v>39</v>
       </c>
@@ -2750,7 +2769,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>22</v>
       </c>
@@ -2764,7 +2783,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
         <v>120</v>
       </c>
@@ -2772,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>46</v>
       </c>
@@ -2783,7 +2802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
         <v>22</v>
       </c>
@@ -2794,7 +2813,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>23</v>
       </c>
@@ -2805,7 +2824,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
         <v>78</v>
       </c>
@@ -2813,7 +2832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
         <v>32</v>
       </c>
@@ -2821,7 +2840,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
         <v>33</v>
       </c>
@@ -2832,7 +2851,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
         <v>57</v>
       </c>
@@ -2843,7 +2862,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
         <v>115</v>
       </c>
@@ -2854,7 +2873,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
         <v>63</v>
       </c>
@@ -2865,7 +2884,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>24</v>
       </c>
@@ -2879,7 +2898,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
         <v>87</v>
       </c>
@@ -2887,7 +2906,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
         <v>125</v>
       </c>
@@ -2898,7 +2917,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
         <v>87</v>
       </c>
@@ -2906,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
         <v>126</v>
       </c>
@@ -2917,7 +2936,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
         <v>7</v>
       </c>
@@ -2928,7 +2947,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>25</v>
       </c>
@@ -2939,7 +2958,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
         <v>132</v>
       </c>
@@ -2947,7 +2966,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B135" s="2" t="s">
         <v>4</v>
       </c>
@@ -2955,7 +2974,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
         <v>5</v>
       </c>
@@ -2963,7 +2982,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B137" s="2" t="s">
         <v>22</v>
       </c>
@@ -2971,7 +2990,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
         <v>132</v>
       </c>
@@ -2979,7 +2998,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
         <v>5</v>
       </c>
@@ -2987,7 +3006,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
         <v>22</v>
       </c>
@@ -2995,7 +3014,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>26</v>
       </c>
@@ -3006,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B142" s="2" t="s">
         <v>94</v>
       </c>
@@ -3014,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
         <v>94</v>
       </c>
@@ -3022,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
         <v>94</v>
       </c>
@@ -3033,7 +3052,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>27</v>
       </c>
@@ -3044,7 +3063,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B146" s="2" t="s">
         <v>65</v>
       </c>
@@ -3052,7 +3071,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B147" s="2" t="s">
         <v>99</v>
       </c>
@@ -3060,7 +3079,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B148" s="2" t="s">
         <v>4</v>
       </c>
@@ -3068,7 +3087,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
         <v>34</v>
       </c>
@@ -3076,7 +3095,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
         <v>87</v>
       </c>
@@ -3084,7 +3103,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
         <v>4</v>
       </c>
@@ -3092,7 +3111,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
         <v>34</v>
       </c>
@@ -3100,7 +3119,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>28</v>
       </c>
@@ -3111,7 +3130,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B154" s="2" t="s">
         <v>136</v>
       </c>
@@ -3119,7 +3138,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B155" s="2" t="s">
         <v>137</v>
       </c>
@@ -3127,7 +3146,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B156" s="2" t="s">
         <v>7</v>
       </c>
@@ -3135,7 +3154,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B157" s="2" t="s">
         <v>104</v>
       </c>
@@ -3143,7 +3162,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B158" s="2" t="s">
         <v>136</v>
       </c>
@@ -3151,7 +3170,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B159" s="2" t="s">
         <v>138</v>
       </c>
@@ -3159,7 +3178,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B160" s="2" t="s">
         <v>19</v>
       </c>
@@ -3167,7 +3186,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>29</v>
       </c>
@@ -3178,7 +3197,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B162" s="2" t="s">
         <v>142</v>
       </c>
@@ -3186,7 +3205,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B163" s="2" t="s">
         <v>6</v>
       </c>
@@ -3194,7 +3213,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B164" s="2" t="s">
         <v>19</v>
       </c>
@@ -3202,7 +3221,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B165" s="2" t="s">
         <v>4</v>
       </c>
@@ -3210,7 +3229,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B166" s="2" t="s">
         <v>22</v>
       </c>
@@ -3218,7 +3237,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B167" s="2" t="s">
         <v>19</v>
       </c>
@@ -3226,7 +3245,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B168" s="2" t="s">
         <v>4</v>
       </c>
@@ -3234,7 +3253,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>30</v>
       </c>
@@ -3245,7 +3264,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B170" s="2" t="s">
         <v>143</v>
       </c>
@@ -3253,7 +3272,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B171" s="2" t="s">
         <v>136</v>
       </c>
@@ -3261,7 +3280,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B172" s="2" t="s">
         <v>22</v>
       </c>
@@ -3269,7 +3288,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B173" s="2" t="s">
         <v>144</v>
       </c>
@@ -3277,7 +3296,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
         <v>143</v>
       </c>
@@ -3285,7 +3304,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B175" s="2" t="s">
         <v>21</v>
       </c>
@@ -3293,7 +3312,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B176" s="2" t="s">
         <v>7</v>
       </c>
@@ -3301,7 +3320,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
         <v>87</v>
       </c>
@@ -3309,7 +3328,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
         <v>63</v>
       </c>
@@ -3317,7 +3336,7 @@
         <v>0.16666666666666599</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>31</v>
       </c>
@@ -3328,7 +3347,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
         <v>146</v>
       </c>
@@ -3336,7 +3355,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B181" s="2" t="s">
         <v>146</v>
       </c>
@@ -3344,7 +3363,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B182" s="2" t="s">
         <v>146</v>
       </c>
@@ -3352,7 +3371,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B183" s="2" t="s">
         <v>147</v>
       </c>
@@ -3360,7 +3379,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B184" s="2" t="s">
         <v>146</v>
       </c>
@@ -3368,7 +3387,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B185" s="2" t="s">
         <v>146</v>
       </c>
@@ -3376,7 +3395,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B186" s="2" t="s">
         <v>146</v>
       </c>
@@ -3384,7 +3403,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>32</v>
       </c>
@@ -3395,7 +3414,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B188" s="2" t="s">
         <v>146</v>
       </c>
@@ -3403,7 +3422,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B189" s="2" t="s">
         <v>146</v>
       </c>
@@ -3411,7 +3430,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B190" s="2" t="s">
         <v>146</v>
       </c>
@@ -3419,7 +3438,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B191" s="2" t="s">
         <v>150</v>
       </c>
@@ -3427,7 +3446,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B192" s="2" t="s">
         <v>146</v>
       </c>
@@ -3435,7 +3454,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B193" s="2" t="s">
         <v>149</v>
       </c>
@@ -3443,7 +3462,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B194" s="2" t="s">
         <v>149</v>
       </c>
@@ -3451,7 +3470,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>33</v>
       </c>
@@ -3462,7 +3481,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B196" s="2" t="s">
         <v>151</v>
       </c>
@@ -3470,7 +3489,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B197" s="2" t="s">
         <v>151</v>
       </c>
@@ -3478,7 +3497,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B198" s="2" t="s">
         <v>151</v>
       </c>
@@ -3486,7 +3505,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B199" s="2" t="s">
         <v>153</v>
       </c>
@@ -3494,7 +3513,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B200" s="2" t="s">
         <v>151</v>
       </c>
@@ -3502,7 +3521,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B201" s="2" t="s">
         <v>151</v>
       </c>
@@ -3510,7 +3529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B202" s="2" t="s">
         <v>151</v>
       </c>
@@ -3518,7 +3537,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>34</v>
       </c>
@@ -3529,7 +3548,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B204" s="2" t="s">
         <v>151</v>
       </c>
@@ -3537,7 +3556,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B205" s="2" t="s">
         <v>151</v>
       </c>
@@ -3545,7 +3564,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B206" s="2" t="s">
         <v>151</v>
       </c>
@@ -3553,7 +3572,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B207" s="2" t="s">
         <v>154</v>
       </c>
@@ -3561,7 +3580,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B208" s="2" t="s">
         <v>151</v>
       </c>
@@ -3569,7 +3588,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B209" s="2" t="s">
         <v>151</v>
       </c>
@@ -3577,7 +3596,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B210" s="2" t="s">
         <v>151</v>
       </c>
@@ -3585,7 +3604,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>35</v>
       </c>
@@ -3596,7 +3615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>36</v>
       </c>
@@ -3607,7 +3626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>37</v>
       </c>
@@ -3618,7 +3637,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B214" s="2" t="s">
         <v>149</v>
       </c>
@@ -3626,7 +3645,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B215" s="2" t="s">
         <v>142</v>
       </c>
@@ -3634,7 +3653,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B216" s="2" t="s">
         <v>149</v>
       </c>
@@ -3642,7 +3661,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B217" s="2" t="s">
         <v>158</v>
       </c>
@@ -3650,7 +3669,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B218" s="2" t="s">
         <v>149</v>
       </c>
@@ -3658,7 +3677,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B219" s="2" t="s">
         <v>142</v>
       </c>
@@ -3666,7 +3685,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B220" s="2" t="s">
         <v>149</v>
       </c>
@@ -3674,7 +3693,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>38</v>
       </c>
@@ -3685,7 +3704,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B222" s="2" t="s">
         <v>156</v>
       </c>
@@ -3693,7 +3712,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B223" s="2" t="s">
         <v>160</v>
       </c>
@@ -3701,7 +3720,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B224" s="2" t="s">
         <v>156</v>
       </c>
@@ -3709,7 +3728,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B225" s="2" t="s">
         <v>161</v>
       </c>
@@ -3717,7 +3736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B226" s="2" t="s">
         <v>162</v>
       </c>
@@ -3725,7 +3744,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B227" s="2" t="s">
         <v>163</v>
       </c>
@@ -3733,7 +3752,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B228" s="2" t="s">
         <v>164</v>
       </c>
@@ -3741,7 +3760,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>39</v>
       </c>
@@ -3755,7 +3774,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B230" s="2" t="s">
         <v>46</v>
       </c>
@@ -3763,7 +3782,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B231" s="2" t="s">
         <v>3</v>
       </c>
@@ -3771,7 +3790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B232" s="2" t="s">
         <v>33</v>
       </c>
@@ -3779,7 +3798,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B233" s="2" t="s">
         <v>4</v>
       </c>
@@ -3787,7 +3806,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B234" s="2" t="s">
         <v>33</v>
       </c>
@@ -3795,7 +3814,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B235" s="2" t="s">
         <v>3</v>
       </c>
@@ -3803,7 +3822,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B236" s="2" t="s">
         <v>46</v>
       </c>
@@ -3811,7 +3830,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>40</v>
       </c>
@@ -3822,7 +3841,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B238" s="2" t="s">
         <v>170</v>
       </c>
@@ -3833,7 +3852,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B239" s="2" t="s">
         <v>171</v>
       </c>
@@ -3844,7 +3863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B240" s="2" t="s">
         <v>172</v>
       </c>
@@ -3855,7 +3874,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B241" s="2" t="s">
         <v>173</v>
       </c>
@@ -3866,7 +3885,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B242" s="2" t="s">
         <v>18</v>
       </c>
@@ -3874,7 +3893,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B243" s="2" t="s">
         <v>174</v>
       </c>
@@ -3885,7 +3904,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B244" s="2" t="s">
         <v>18</v>
       </c>
@@ -3893,7 +3912,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>41</v>
       </c>
@@ -3907,7 +3926,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B246" s="2" t="s">
         <v>78</v>
       </c>
@@ -3915,7 +3934,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B247" s="2" t="s">
         <v>32</v>
       </c>
@@ -3923,7 +3942,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B248" s="2" t="s">
         <v>66</v>
       </c>
@@ -3934,7 +3953,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B249" s="2" t="s">
         <v>180</v>
       </c>
@@ -3942,7 +3961,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B250" s="2" t="s">
         <v>33</v>
       </c>
@@ -3950,7 +3969,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B251" s="2" t="s">
         <v>32</v>
       </c>
@@ -3958,7 +3977,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B252" s="2" t="s">
         <v>78</v>
       </c>
@@ -3966,7 +3985,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>42</v>
       </c>
@@ -3977,7 +3996,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B254" s="2" t="s">
         <v>185</v>
       </c>
@@ -3988,7 +4007,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B255" s="2" t="s">
         <v>31</v>
       </c>
@@ -3999,7 +4018,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B256" s="2" t="s">
         <v>186</v>
       </c>
@@ -4010,7 +4029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B257" s="2" t="s">
         <v>187</v>
       </c>
@@ -4021,7 +4040,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B258" s="2" t="s">
         <v>33</v>
       </c>
@@ -4029,7 +4048,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B259" s="2" t="s">
         <v>35</v>
       </c>
@@ -4040,7 +4059,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B260" s="2" t="s">
         <v>78</v>
       </c>
@@ -4048,7 +4067,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>43</v>
       </c>
@@ -4062,7 +4081,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B262" s="2" t="s">
         <v>132</v>
       </c>
@@ -4070,7 +4089,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B263" s="2" t="s">
         <v>46</v>
       </c>
@@ -4078,7 +4097,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B264" s="2" t="s">
         <v>193</v>
       </c>
@@ -4086,7 +4105,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B265" s="2" t="s">
         <v>194</v>
       </c>
@@ -4097,7 +4116,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B266" s="2" t="s">
         <v>4</v>
       </c>
@@ -4105,7 +4124,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B267" s="2" t="s">
         <v>132</v>
       </c>
@@ -4113,7 +4132,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B268" s="2" t="s">
         <v>18</v>
       </c>
@@ -4121,7 +4140,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44</v>
       </c>
@@ -4132,7 +4151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B270" s="2" t="s">
         <v>46</v>
       </c>
@@ -4140,7 +4159,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B271" s="2" t="s">
         <v>198</v>
       </c>
@@ -4151,7 +4170,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B272" s="2" t="s">
         <v>33</v>
       </c>
@@ -4159,7 +4178,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B273" s="2" t="s">
         <v>199</v>
       </c>
@@ -4170,7 +4189,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B274" s="2" t="s">
         <v>33</v>
       </c>
@@ -4178,7 +4197,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B275" s="2" t="s">
         <v>200</v>
       </c>
@@ -4189,7 +4208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B276" s="2" t="s">
         <v>46</v>
       </c>
@@ -4197,7 +4216,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>45</v>
       </c>
@@ -4211,7 +4230,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B278" s="2" t="s">
         <v>3</v>
       </c>
@@ -4219,7 +4238,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B279" s="2" t="s">
         <v>126</v>
       </c>
@@ -4227,7 +4246,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B280" s="2" t="s">
         <v>205</v>
       </c>
@@ -4235,7 +4254,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B281" s="2" t="s">
         <v>206</v>
       </c>
@@ -4246,7 +4265,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B282" s="2" t="s">
         <v>19</v>
       </c>
@@ -4254,7 +4273,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B283" s="2" t="s">
         <v>3</v>
       </c>
@@ -4262,7 +4281,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B284" s="2" t="s">
         <v>126</v>
       </c>
@@ -4270,7 +4289,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>46</v>
       </c>
@@ -4284,7 +4303,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B286" s="2" t="s">
         <v>132</v>
       </c>
@@ -4292,7 +4311,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B287" s="2" t="s">
         <v>208</v>
       </c>
@@ -4303,7 +4322,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B288" s="2" t="s">
         <v>132</v>
       </c>
@@ -4311,7 +4330,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B289" s="2" t="s">
         <v>209</v>
       </c>
@@ -4322,7 +4341,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B290" s="2" t="s">
         <v>46</v>
       </c>
@@ -4330,7 +4349,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B291" s="2" t="s">
         <v>210</v>
       </c>
@@ -4341,7 +4360,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B292" s="2" t="s">
         <v>4</v>
       </c>
@@ -4349,7 +4368,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>47</v>
       </c>
@@ -4363,7 +4382,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B294" s="2" t="s">
         <v>223</v>
       </c>
@@ -4371,7 +4390,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B295" s="2" t="s">
         <v>224</v>
       </c>
@@ -4379,7 +4398,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B296" s="2" t="s">
         <v>218</v>
       </c>
@@ -4387,7 +4406,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B297" s="2" t="s">
         <v>225</v>
       </c>
@@ -4395,7 +4414,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B298" s="2" t="s">
         <v>226</v>
       </c>
@@ -4406,7 +4425,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B299" s="2" t="s">
         <v>227</v>
       </c>
@@ -4417,7 +4436,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B300" s="2" t="s">
         <v>228</v>
       </c>
@@ -4428,7 +4447,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>48</v>
       </c>
@@ -4442,7 +4461,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B302" s="2" t="s">
         <v>220</v>
       </c>
@@ -4450,7 +4469,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B303" s="2" t="s">
         <v>234</v>
       </c>
@@ -4458,7 +4477,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B304" s="2" t="s">
         <v>235</v>
       </c>
@@ -4469,7 +4488,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B305" s="2" t="s">
         <v>236</v>
       </c>
@@ -4477,7 +4496,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B306" s="2" t="s">
         <v>218</v>
       </c>
@@ -4485,7 +4504,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B307" s="2" t="s">
         <v>237</v>
       </c>
@@ -4496,7 +4515,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B308" s="2" t="s">
         <v>220</v>
       </c>
@@ -4507,7 +4526,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>49</v>
       </c>
@@ -4518,7 +4537,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B310" s="2" t="s">
         <v>242</v>
       </c>
@@ -4526,7 +4545,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B311" s="2" t="s">
         <v>243</v>
       </c>
@@ -4534,7 +4553,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B312" s="2" t="s">
         <v>242</v>
       </c>
@@ -4542,7 +4561,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B313" s="2" t="s">
         <v>244</v>
       </c>
@@ -4550,7 +4569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B314" s="2" t="s">
         <v>245</v>
       </c>
@@ -4561,7 +4580,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B315" s="2" t="s">
         <v>246</v>
       </c>
@@ -4572,7 +4591,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B316" s="2" t="s">
         <v>247</v>
       </c>
@@ -4583,7 +4602,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>50</v>
       </c>
@@ -4597,7 +4616,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B318" s="2" t="s">
         <v>242</v>
       </c>
@@ -4605,7 +4624,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B319" s="2" t="s">
         <v>253</v>
       </c>
@@ -4613,7 +4632,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B320" s="2" t="s">
         <v>254</v>
       </c>
@@ -4624,7 +4643,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B321" s="2" t="s">
         <v>255</v>
       </c>
@@ -4632,7 +4651,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B322" s="2" t="s">
         <v>256</v>
       </c>
@@ -4643,7 +4662,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B323" s="2" t="s">
         <v>218</v>
       </c>
@@ -4651,7 +4670,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B324" s="2" t="s">
         <v>219</v>
       </c>
@@ -4659,7 +4678,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>51</v>
       </c>
@@ -4670,7 +4689,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B326" s="2" t="s">
         <v>216</v>
       </c>
@@ -4681,7 +4700,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B327" s="2" t="s">
         <v>217</v>
       </c>
@@ -4689,7 +4708,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B328" s="2" t="s">
         <v>218</v>
       </c>
@@ -4697,7 +4716,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B329" s="2" t="s">
         <v>219</v>
       </c>
@@ -4705,7 +4724,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B330" s="2" t="s">
         <v>218</v>
       </c>
@@ -4713,7 +4732,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B331" s="2" t="s">
         <v>217</v>
       </c>
@@ -4721,7 +4740,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B332" s="2" t="s">
         <v>220</v>
       </c>
@@ -4729,7 +4748,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>52</v>
       </c>
@@ -4740,7 +4759,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B334" s="2" t="s">
         <v>261</v>
       </c>
@@ -4751,7 +4770,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B335" s="2" t="s">
         <v>262</v>
       </c>
@@ -4762,7 +4781,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B336" s="2" t="s">
         <v>263</v>
       </c>
@@ -4773,7 +4792,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B337" s="2" t="s">
         <v>264</v>
       </c>
@@ -4784,7 +4803,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B338" s="2" t="s">
         <v>236</v>
       </c>
@@ -4792,7 +4811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B339" s="2" t="s">
         <v>224</v>
       </c>
@@ -4800,7 +4819,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B340" s="2" t="s">
         <v>262</v>
       </c>
@@ -4811,7 +4830,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>53</v>
       </c>
@@ -4822,7 +4841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B342" s="2" t="s">
         <v>266</v>
       </c>
@@ -4830,7 +4849,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B343" s="2" t="s">
         <v>267</v>
       </c>
@@ -4841,7 +4860,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>54</v>
       </c>
@@ -4855,7 +4874,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>55</v>
       </c>
@@ -4869,7 +4888,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B346" s="2" t="s">
         <v>276</v>
       </c>
@@ -4877,7 +4896,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B347" s="2" t="s">
         <v>277</v>
       </c>
@@ -4885,7 +4904,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B348" s="2" t="s">
         <v>278</v>
       </c>
@@ -4893,7 +4912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B349" s="2" t="s">
         <v>276</v>
       </c>
@@ -4901,7 +4920,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B350" s="2" t="s">
         <v>278</v>
       </c>
@@ -4909,7 +4928,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B351" s="2" t="s">
         <v>276</v>
       </c>
@@ -4917,7 +4936,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>56</v>
       </c>
@@ -4928,7 +4947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>57</v>
       </c>
@@ -4939,7 +4958,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B354" s="2" t="s">
         <v>282</v>
       </c>
@@ -4947,7 +4966,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B355" s="2" t="s">
         <v>278</v>
       </c>
@@ -4955,7 +4974,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B356" s="2" t="s">
         <v>283</v>
       </c>
@@ -4963,7 +4982,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B357" s="2" t="s">
         <v>284</v>
       </c>
@@ -4971,7 +4990,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B358" s="2" t="s">
         <v>282</v>
       </c>
@@ -4979,7 +4998,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B359" s="2" t="s">
         <v>278</v>
       </c>
@@ -4987,7 +5006,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B360" s="2" t="s">
         <v>283</v>
       </c>
@@ -4995,7 +5014,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>58</v>
       </c>
@@ -5006,7 +5025,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B362" s="2" t="s">
         <v>277</v>
       </c>
@@ -5014,7 +5033,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B363" s="2" t="s">
         <v>282</v>
       </c>
@@ -5022,7 +5041,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B364" s="2" t="s">
         <v>286</v>
       </c>
@@ -5030,7 +5049,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>59</v>
       </c>
@@ -5041,7 +5060,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B366" s="2" t="s">
         <v>288</v>
       </c>
@@ -5049,7 +5068,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B367" s="2" t="s">
         <v>289</v>
       </c>
@@ -5057,7 +5076,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B368" s="2" t="s">
         <v>290</v>
       </c>
@@ -5065,7 +5084,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B369" s="2" t="s">
         <v>291</v>
       </c>
@@ -5073,7 +5092,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B370" s="2" t="s">
         <v>288</v>
       </c>
@@ -5081,7 +5100,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B371" s="2" t="s">
         <v>289</v>
       </c>
@@ -5089,7 +5108,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B372" s="2" t="s">
         <v>292</v>
       </c>
@@ -5097,7 +5116,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>60</v>
       </c>
@@ -5108,7 +5127,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B374" s="2" t="s">
         <v>295</v>
       </c>
@@ -5116,7 +5135,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B375" s="2" t="s">
         <v>296</v>
       </c>
@@ -5124,7 +5143,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B376" s="2" t="s">
         <v>297</v>
       </c>
@@ -5132,7 +5151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B377" s="2" t="s">
         <v>298</v>
       </c>
@@ -5140,7 +5159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>61</v>
       </c>
@@ -5151,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B379" s="2" t="s">
         <v>299</v>
       </c>
@@ -5159,7 +5178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>300</v>
       </c>
@@ -5167,7 +5186,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>305</v>
       </c>
@@ -5178,7 +5197,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B382" s="2" t="s">
         <v>302</v>
       </c>
@@ -5186,7 +5205,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B383" s="2" t="s">
         <v>303</v>
       </c>
@@ -5194,7 +5213,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B384" s="2" t="s">
         <v>304</v>
       </c>
@@ -5202,7 +5221,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>306</v>
       </c>
@@ -5213,7 +5232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>308</v>
       </c>
